--- a/biology/Origine et évolution du vivant/Patrick_Forterre/Patrick_Forterre.xlsx
+++ b/biology/Origine et évolution du vivant/Patrick_Forterre/Patrick_Forterre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Patrick Forterre, né le 21 août 1949 à Paris, est un chercheur en biologie, professeur d'université et écrivain scientifique français. Il a été chef d’unité et Professeur à l’Institut Pasteur[Note 1],[1].
-Il est reconnu pour ses travaux sur les Archaea, les virus et l'évolution du vivant[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Patrick Forterre, né le 21 août 1949 à Paris, est un chercheur en biologie, professeur d'université et écrivain scientifique français. Il a été chef d’unité et Professeur à l’Institut Pasteur[Note 1],.
+Il est reconnu pour ses travaux sur les Archaea, les virus et l'évolution du vivant.
 </t>
         </is>
       </c>
@@ -512,19 +524,21 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'âge de 17 ans, il découvre la biologie moléculaire en lisant l'ouvrage de vulgarisation Les Origines de la vie de Joël de Rosnay[3].
-Dès 1983, Forterre est le premier savant en France à avoir étudié les archéobactéries[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'âge de 17 ans, il découvre la biologie moléculaire en lisant l'ouvrage de vulgarisation Les Origines de la vie de Joël de Rosnay.
+Dès 1983, Forterre est le premier savant en France à avoir étudié les archéobactéries.
 En 1988, il devient responsable d'une équipe de recherche à l'Institut de Génétique et de Microbiologie (IGM) à Orsay et dirige des recherches sur les Archaea, le nouveau domaine du vivant découvert en 1977 et renommé en 1990 par Carl Woese.
-Il participe à la 11e conférence internationale sur l'origine de la vie, organisée par l'International Society for the Study of the Origin of Life (ISSOL) à Orléans du 7 au 12 juillet 1996[5],[6]. Immédiatement après, il est l'organisateur d'un colloque, tenu à la Fondation des Treilles du 18 au 24 juillet 1996, sur la nature du dernier ancêtre commun à tous les êtres vivants actuels[7].
-Par des travaux publiés en 1995[8] et en 1999[9], le chercheur français s'est fait le champion de la théorie d'un dernier ancêtre commun universel mésophile (adapté à un milieu tempéré), à partir duquel les organismes thermophiles archéens et bactériens auraient évolué par un processus de thermoréduction[10].
-En 2004, il intègre l'Institut Pasteur en tant que directeur de la microbiologie[11].
-Avec Céline Brochier et Simonetta Gribaldo, il co-organise le colloque « LUCA, 10 ans après », tenu du 4 au 9 septembre 2006 à la Fondation des Treilles[12].
-Patrick Forterre est particulièrement connu pour ses théories sur l'évolution et ses prises de position sur la reconnaissance des virus en tant qu'êtres vivants à part entière[13],[14]. Le biologiste considère que les virus pourraient représenter les premiers « organismes à ADN »[15],[16],[17].
+Il participe à la 11e conférence internationale sur l'origine de la vie, organisée par l'International Society for the Study of the Origin of Life (ISSOL) à Orléans du 7 au 12 juillet 1996,. Immédiatement après, il est l'organisateur d'un colloque, tenu à la Fondation des Treilles du 18 au 24 juillet 1996, sur la nature du dernier ancêtre commun à tous les êtres vivants actuels.
+Par des travaux publiés en 1995 et en 1999, le chercheur français s'est fait le champion de la théorie d'un dernier ancêtre commun universel mésophile (adapté à un milieu tempéré), à partir duquel les organismes thermophiles archéens et bactériens auraient évolué par un processus de thermoréduction.
+En 2004, il intègre l'Institut Pasteur en tant que directeur de la microbiologie.
+Avec Céline Brochier et Simonetta Gribaldo, il co-organise le colloque « LUCA, 10 ans après », tenu du 4 au 9 septembre 2006 à la Fondation des Treilles.
+Patrick Forterre est particulièrement connu pour ses théories sur l'évolution et ses prises de position sur la reconnaissance des virus en tant qu'êtres vivants à part entière,. Le biologiste considère que les virus pourraient représenter les premiers « organismes à ADN ».
 Il intervient en tant que scientifique dans le film documentaire Espèces d'espèces, réalisé en 2008.
-Il donne la 667e conférence de l’Université de tous les savoirs le 16 juin 2008[18],[19].
-Il est coorganisateur du colloque « LUCA, ses contemporains et leurs virus, 20 ans après », tenu du 9 au 14 mai 2016 à la Fondation des Treilles[20].
+Il donne la 667e conférence de l’Université de tous les savoirs le 16 juin 2008,.
+Il est coorganisateur du colloque « LUCA, ses contemporains et leurs virus, 20 ans après », tenu du 9 au 14 mai 2016 à la Fondation des Treilles.
 </t>
         </is>
       </c>
@@ -550,15 +564,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Travaux de recherche</t>
+          <t>Théories scientifiques</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Les organismes extrémophiles
-Les virus des Archaea
-Les bactériophages
-La phylogénie des Bactéries et des Archaea</t>
+          <t>LUCA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Last Universal Common Ancestor</t>
         </is>
       </c>
     </row>
@@ -583,17 +600,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Théories scientifiques</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>LUCA
-Last Universal Common Ancestor
-Le monde à ARN
-La notion de cellule virale ou « virocell »</t>
-        </is>
-      </c>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -616,10 +628,20 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Distinctions</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Patrick Forterre, Microbes de l'enfer, Belin, Pour la science, Paris, 2007, 250 p.  (ISBN 978-2-7011-4425-2)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -647,15 +669,52 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ouvrages
-Patrick Forterre, Microbes de l'enfer, Belin, Pour la science, Paris, 2007, 250 p.  (ISBN 978-2-7011-4425-2)
-Articles scientifiques
-2005 : Patrick Forterre, Simonetta Gribaldo et Céline Brochier : « Luca : à la recherche du plus proche ancêtre commun universel », Médecine / Sciences, vol. 21, n°10, 2005, pp. 860–865
+          <t>Articles scientifiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2005 : Patrick Forterre, Simonetta Gribaldo et Céline Brochier : « Luca : à la recherche du plus proche ancêtre commun universel », Médecine / Sciences, vol. 21, n°10, 2005, pp. 860–865
 2008 : Simonetta Gribaldo, Patrick Forterre et Céline Brochier-Armanet : « Les Archaea : évolution et diversité du troisième domaine du vivant », Bull. Soc. Fr. Microbiol., vol. 23, n°3, 2008, pp.137–145.
 2013 : Patrick Forterre, « Les virus à nouveau sur le devant de la scène », Biologie Aujourd’hui, Société de biologie, vol. 207, no 3,‎ 13 décembre 2013, p. 153-168 DOI 10.1051/jbio/2013018
-2016 : Patrick Forterre, « La cellule virale rouage de la vie », Pour la Science, no 469 « Le nouveau monde des microbes »,‎ novembre 2016, p. 42-49 (lire en ligne), disponible sur Internet Archive
-Entretiens Interviews
-2017 : Mathias Germain, « Entretien avec Patrick Forterre : L'ancêtre commun à tous les êtres vivants était une cellule assez complexe », La Recherche, no 523,‎ mai 2017, p. 5-8.</t>
+2016 : Patrick Forterre, « La cellule virale rouage de la vie », Pour la Science, no 469 « Le nouveau monde des microbes »,‎ novembre 2016, p. 42-49 (lire en ligne), disponible sur Internet Archive</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Patrick_Forterre</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Forterre</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Entretiens Interviews</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2017 : Mathias Germain, « Entretien avec Patrick Forterre : L'ancêtre commun à tous les êtres vivants était une cellule assez complexe », La Recherche, no 523,‎ mai 2017, p. 5-8.</t>
         </is>
       </c>
     </row>
